--- a/docs/StructureDefinition-patient-profile.xlsx
+++ b/docs/StructureDefinition-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T21:33:06+08:00</t>
+    <t>2022-07-20T22:00:32+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-patient-profile.xlsx
+++ b/docs/StructureDefinition-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T22:00:32+08:00</t>
+    <t>2022-07-31T21:33:26+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4333,10 +4333,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>

--- a/docs/StructureDefinition-patient-profile.xlsx
+++ b/docs/StructureDefinition-patient-profile.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>01-Patient Profile</t>
+    <t>Patient Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31T21:33:26+08:00</t>
+    <t>2022-08-03T14:01:00+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-patient-profile.xlsx
+++ b/docs/StructureDefinition-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T14:01:00+08:00</t>
+    <t>2022-08-07T11:52:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-patient-profile.xlsx
+++ b/docs/StructureDefinition-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-07T11:52:30+08:00</t>
+    <t>2022-08-27T12:17:33+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-patient-profile.xlsx
+++ b/docs/StructureDefinition-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-27T12:17:33+08:00</t>
+    <t>2022-08-27T19:57:01+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-patient-profile.xlsx
+++ b/docs/StructureDefinition-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-27T19:57:01+08:00</t>
+    <t>2022-09-25T15:07:05+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-patient-profile.xlsx
+++ b/docs/StructureDefinition-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-25T15:07:05+08:00</t>
+    <t>2022-10-08T22:29:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
